--- a/Plantilla-Hoja Temas analíticos - Copy.xlsx
+++ b/Plantilla-Hoja Temas analíticos - Copy.xlsx
@@ -1,21 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alvaro\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brend\OneDrive - Universidad de los Andes\Uniandes\ISIS\BI\Proyectos\Proyecto 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D0B36FB-407C-43F1-BAD4-61A321732AEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F71A93A0-E87C-423A-80E3-B3AF09F6B811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11715" yWindow="1950" windowWidth="15375" windowHeight="6885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Temas Analíticos" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -73,9 +85,6 @@
     <t>Conflicto Armado</t>
   </si>
   <si>
-    <t>Muertes (Demografía y Población - Conflicto Armado)</t>
-  </si>
-  <si>
     <t>Discriminar los índices de problemáticas sanitarias por cada departamento</t>
   </si>
   <si>
@@ -146,6 +155,9 @@
   </si>
   <si>
     <t>Analizar los índices de acceso a la educación relacionados con el conflicto armado en el tiempo</t>
+  </si>
+  <si>
+    <t>Afectaciones por el conflicto armado (Demografía y Población - Conflicto Armado)</t>
   </si>
 </sst>
 </file>
@@ -462,24 +474,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -532,6 +526,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -874,26 +886,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A5:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B32" sqref="A32:XFD32"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23" style="10" customWidth="1"/>
-    <col min="2" max="3" width="41.109375" style="10" customWidth="1"/>
-    <col min="4" max="4" width="28.109375" style="10" customWidth="1"/>
-    <col min="5" max="5" width="29.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="11.44140625" style="10"/>
+    <col min="1" max="1" width="23" style="4" customWidth="1"/>
+    <col min="2" max="3" width="41.140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="28.140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="29.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="11.42578125" style="4"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="1:5" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:5" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -910,511 +922,511 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:5" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="40.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="26"/>
+      <c r="B11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="26"/>
+      <c r="B12" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="26"/>
+      <c r="B13" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="28.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="27"/>
+      <c r="B14" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="12"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="14"/>
+    </row>
+    <row r="16" spans="1:5" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="11" t="s">
+      <c r="C16" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8"/>
-      <c r="B11" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="11" t="s">
+      <c r="E16" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="38.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="23"/>
+      <c r="B17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8"/>
-      <c r="B12" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="15" t="s">
+      <c r="E17" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="28.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="23"/>
+      <c r="B18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8"/>
-      <c r="B13" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="15" t="s">
+      <c r="E18" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="37.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="23"/>
+      <c r="B19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="9"/>
-      <c r="B14" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="16" t="s">
+      <c r="E19" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="24"/>
+      <c r="B20" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="18"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="20"/>
-    </row>
-    <row r="16" spans="1:5" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="4" t="s">
+      <c r="E20" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="12"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="14"/>
+    </row>
+    <row r="22" spans="1:5" ht="65.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="11" t="s">
+      <c r="B22" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="E22" s="16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="46.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="23"/>
+      <c r="B23" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="38.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="5"/>
-      <c r="B17" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="11" t="s">
+      <c r="C23" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="22" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="5"/>
-      <c r="B18" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="22" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="37.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="5"/>
-      <c r="B19" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="22" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="6"/>
-      <c r="B20" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="16" t="s">
+      <c r="E23" s="16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="23"/>
+      <c r="B24" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="49.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="23"/>
+      <c r="B25" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="22" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="18"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="20"/>
-    </row>
-    <row r="22" spans="1:5" ht="65.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="4" t="s">
+      <c r="E25" s="16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="17"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="19"/>
+    </row>
+    <row r="27" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="11" t="s">
+      <c r="B27" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="22" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="5"/>
-      <c r="B23" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="22" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="49.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="5"/>
-      <c r="B24" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="22" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="49.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="5"/>
-      <c r="B25" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="16" t="s">
+      <c r="E27" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="23"/>
+      <c r="B28" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E25" s="22" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="23"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="25"/>
-    </row>
-    <row r="27" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
+      <c r="E28" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="23"/>
+      <c r="B29" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27" s="12" t="s">
+      <c r="C29" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="23"/>
+      <c r="B30" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="17"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="19"/>
+    </row>
+    <row r="32" spans="1:5" ht="67.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="22" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="5"/>
-      <c r="B28" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" s="16" t="s">
+      <c r="B32" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="23"/>
+      <c r="B33" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="5"/>
-      <c r="B29" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="5"/>
-      <c r="B30" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="23"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="25"/>
-    </row>
-    <row r="32" spans="1:5" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
+      <c r="E33" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="49.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="5"/>
-      <c r="B33" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="23"/>
-      <c r="B34" s="24"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="25"/>
-    </row>
-    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="4"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="12"/>
-    </row>
-    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="5"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="12"/>
-    </row>
-    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="5"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="12"/>
-    </row>
-    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="5"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="14"/>
-    </row>
-    <row r="39" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="6"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="17"/>
-    </row>
-    <row r="40" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="23"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="25"/>
-    </row>
-    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="4"/>
-      <c r="B41" s="21"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="12"/>
-    </row>
-    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="5"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="12"/>
-    </row>
-    <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="5"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="12"/>
-    </row>
-    <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="5"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="14"/>
-    </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="6"/>
-      <c r="B45" s="16"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="17"/>
-    </row>
-    <row r="46" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="23"/>
-      <c r="B46" s="24"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="24"/>
-      <c r="E46" s="25"/>
-    </row>
-    <row r="47" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="4"/>
-      <c r="B47" s="21"/>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="12"/>
-    </row>
-    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="5"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="12"/>
-    </row>
-    <row r="49" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="5"/>
-      <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="12"/>
-    </row>
-    <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="5"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="14"/>
-    </row>
-    <row r="51" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="6"/>
-      <c r="B51" s="16"/>
-      <c r="C51" s="16"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="17"/>
-    </row>
-    <row r="52" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="23"/>
-      <c r="B52" s="24"/>
-      <c r="C52" s="24"/>
-      <c r="D52" s="24"/>
-      <c r="E52" s="25"/>
-    </row>
-    <row r="53" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="4"/>
-      <c r="B53" s="21"/>
-      <c r="C53" s="21"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="12"/>
-    </row>
-    <row r="54" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="5"/>
-      <c r="B54" s="11"/>
-      <c r="C54" s="11"/>
-      <c r="D54" s="11"/>
-      <c r="E54" s="12"/>
-    </row>
-    <row r="55" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="5"/>
-      <c r="B55" s="11"/>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
-      <c r="E55" s="12"/>
-    </row>
-    <row r="56" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="5"/>
-      <c r="B56" s="13"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="14"/>
-    </row>
-    <row r="57" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="6"/>
-      <c r="B57" s="16"/>
-      <c r="C57" s="16"/>
-      <c r="D57" s="16"/>
-      <c r="E57" s="17"/>
+    </row>
+    <row r="34" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="17"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="19"/>
+    </row>
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="22"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="6"/>
+    </row>
+    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="23"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="6"/>
+    </row>
+    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="23"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="6"/>
+    </row>
+    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="23"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="8"/>
+    </row>
+    <row r="39" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="24"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="11"/>
+    </row>
+    <row r="40" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="17"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="19"/>
+    </row>
+    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="22"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="6"/>
+    </row>
+    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="23"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="6"/>
+    </row>
+    <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="23"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="6"/>
+    </row>
+    <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="23"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="8"/>
+    </row>
+    <row r="45" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="24"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="11"/>
+    </row>
+    <row r="46" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="17"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="19"/>
+    </row>
+    <row r="47" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="22"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="6"/>
+    </row>
+    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="23"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="6"/>
+    </row>
+    <row r="49" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="23"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="6"/>
+    </row>
+    <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="23"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="8"/>
+    </row>
+    <row r="51" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="24"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="11"/>
+    </row>
+    <row r="52" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="17"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="19"/>
+    </row>
+    <row r="53" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="22"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="6"/>
+    </row>
+    <row r="54" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="23"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="6"/>
+    </row>
+    <row r="55" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="23"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="6"/>
+    </row>
+    <row r="56" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="23"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="8"/>
+    </row>
+    <row r="57" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="24"/>
+      <c r="B57" s="10"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1434,18 +1446,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1639,18 +1651,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF57A317-E2FD-461A-8FCD-E863AC62598A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A078967-5430-4F36-AE44-54F6FF19905C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A078967-5430-4F36-AE44-54F6FF19905C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF57A317-E2FD-461A-8FCD-E863AC62598A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
